--- a/export/portfolio_0x881E625E5C30973b47ceE3a0f3Ef456012F13f7D_1742486783.xlsx
+++ b/export/portfolio_0x881E625E5C30973b47ceE3a0f3Ef456012F13f7D_1742486783.xlsx
@@ -441,7 +441,7 @@
         <v>1.0027222173E-8</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0267723494712557</v>
+        <v>0.0268473038506951</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
